--- a/SubRES_TMPL/SubRES_TRA_NL.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CC74D1-7C44-4AC5-A5C9-8BD80848EE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BB2746-F23B-4F38-9B62-68EE28B2C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="310">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -4798,6 +4798,9 @@
   </si>
   <si>
     <t>KRE_ship_NL</t>
+  </si>
+  <si>
+    <t>H2_COMP</t>
   </si>
 </sst>
 </file>
@@ -5162,7 +5165,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -5383,6 +5386,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -8100,7 +8104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -17467,8 +17471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17693,8 +17697,8 @@
       <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="F11" t="s">
-        <v>156</v>
+      <c r="F11" s="100" t="s">
+        <v>309</v>
       </c>
       <c r="G11" t="s">
         <v>299</v>
@@ -17852,8 +17856,8 @@
         <v>249</v>
       </c>
       <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
-        <v>156</v>
+      <c r="F14" s="100" t="s">
+        <v>309</v>
       </c>
       <c r="G14" t="s">
         <v>299</v>

--- a/SubRES_TMPL/SubRES_TRA_NL.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2FAC70-C409-43F3-833C-CAE87538A844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435C796-B4BC-46D3-92F9-BBE1CEB13415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
@@ -4871,7 +4871,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -5093,6 +5093,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -7811,7 +7812,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8063,14 +8064,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="80">
-        <f>'JET FUEL'!J18</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11" s="80">
         <f>'JET FUEL'!J19</f>
         <v>9.8872405206880537E-2</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="80">
+        <f>'JET FUEL'!J18</f>
+        <v>18.136342649856541</v>
+      </c>
       <c r="T11" s="82"/>
       <c r="Y11" s="67" t="s">
         <v>225</v>
@@ -8095,6 +8098,7 @@
         <f>'JET FUEL'!$J$59/'JET FUEL'!$S$22</f>
         <v>3.9865178986517899E-4</v>
       </c>
+      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
       <c r="Y12" s="69" t="s">
         <v>226</v>
@@ -8140,14 +8144,17 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <f>Q11</f>
-        <v>18.136342649856541</v>
+      <c r="Q13" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>9.8872405206880537E-2</v>
       </c>
+      <c r="S13">
+        <f>S11</f>
+        <v>18.136342649856541</v>
+      </c>
       <c r="T13" s="76"/>
       <c r="Y13" s="70" t="s">
         <v>232</v>
@@ -8185,6 +8192,7 @@
         <f>'JET FUEL'!$J$59/'JET FUEL'!$S$22</f>
         <v>3.9865178986517899E-4</v>
       </c>
+      <c r="Q14" s="101"/>
       <c r="Y14" s="70" t="s">
         <v>239</v>
       </c>
@@ -8215,14 +8223,17 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <f>Q13</f>
-        <v>18.136342649856541</v>
+      <c r="Q15" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
         <f>R13</f>
         <v>9.8872405206880537E-2</v>
       </c>
+      <c r="S15">
+        <f>S13</f>
+        <v>18.136342649856541</v>
+      </c>
       <c r="Y15" t="s">
         <v>240</v>
       </c>
@@ -8259,6 +8270,7 @@
         <f>'JET FUEL'!$J$59/'JET FUEL'!$S$22</f>
         <v>3.9865178986517899E-4</v>
       </c>
+      <c r="Q16" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17178,10 +17190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
-  <dimension ref="C3:AF19"/>
+  <dimension ref="C3:AF20"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17646,14 +17658,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'H2'!M20</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'H2'!N21</f>
         <v>0.44311627746107951</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'H2'!M20</f>
+        <v>124.07255768910225</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -17669,6 +17683,7 @@
         <v>4.462946294629463E-4</v>
       </c>
       <c r="O15" s="77"/>
+      <c r="Q15" s="101"/>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
@@ -17685,13 +17700,16 @@
       <c r="P16" s="79">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <f>Q14</f>
-        <v>124.07255768910225</v>
+      <c r="Q16" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>'H2'!N21</f>
         <v>0.44311627746107951</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>124.07255768910225</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -17709,6 +17727,7 @@
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="79"/>
+      <c r="Q17" s="101"/>
       <c r="T17" s="76"/>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.3">
@@ -17724,14 +17743,17 @@
       <c r="P18" s="79">
         <v>1</v>
       </c>
-      <c r="Q18">
-        <f>'H2'!N20</f>
-        <v>88.623255492215904</v>
+      <c r="Q18" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.44311627746107951</v>
       </c>
+      <c r="S18">
+        <f>'H2'!N20</f>
+        <v>88.623255492215904</v>
+      </c>
       <c r="T18" s="76"/>
     </row>
     <row r="19" spans="5:20" x14ac:dyDescent="0.3">
@@ -17745,6 +17767,10 @@
         <f>L17</f>
         <v>4.462946294629463E-4</v>
       </c>
+      <c r="Q19" s="101"/>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="Q20" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21284,7 +21310,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21753,14 +21779,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'NH3'!M11</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'NH3'!N12</f>
         <v>0.51123688365384623</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'NH3'!M11</f>
+        <v>105.70687448860785</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -21772,6 +21800,7 @@
         <v>6.9218898385565053E-4</v>
       </c>
       <c r="O15" s="77"/>
+      <c r="Q15" s="101"/>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
@@ -21788,13 +21817,16 @@
       <c r="P16" s="79">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <f>Q14</f>
-        <v>105.70687448860785</v>
+      <c r="Q16" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>R14</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -21810,6 +21842,7 @@
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="79"/>
+      <c r="Q17" s="101"/>
       <c r="T17" s="76"/>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.3">
@@ -21825,14 +21858,17 @@
       <c r="P18" s="79">
         <v>1</v>
       </c>
-      <c r="Q18">
-        <f>Q14</f>
-        <v>105.70687448860785</v>
+      <c r="Q18" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.51123688365384623</v>
       </c>
+      <c r="S18">
+        <f>S14</f>
+        <v>105.70687448860785</v>
+      </c>
       <c r="T18" s="76"/>
     </row>
     <row r="19" spans="5:20" x14ac:dyDescent="0.3">
@@ -21843,6 +21879,7 @@
         <f>L17</f>
         <v>6.9218898385565053E-4</v>
       </c>
+      <c r="Q19" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24190,7 +24227,7 @@
   <dimension ref="C3:AF20"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q11" sqref="Q11:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24502,15 +24539,17 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <f>METHANOL!I18</f>
-        <v>39.212826970469628</v>
+      <c r="Q11" s="80">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11">
         <f>METHANOL!I19</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S11" s="76"/>
+      <c r="S11">
+        <f>METHANOL!I18</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T11" s="76"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
@@ -24525,7 +24564,7 @@
         <v>6.5123624317882812E-4</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="S12" s="76"/>
+      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
@@ -24542,15 +24581,17 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <f>Q11</f>
-        <v>39.212826970469628</v>
+      <c r="Q13" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13">
+        <f>S11</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
@@ -24567,7 +24608,7 @@
       </c>
       <c r="O14" s="77"/>
       <c r="P14" s="79"/>
-      <c r="S14" s="76"/>
+      <c r="Q14" s="101"/>
       <c r="T14" s="76"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -24583,15 +24624,17 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <f>Q13</f>
-        <v>39.212826970469628</v>
+      <c r="Q15" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
         <f>R13</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15">
+        <f>S13</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
@@ -24605,6 +24648,7 @@
         <f>L14</f>
         <v>6.5123624317882812E-4</v>
       </c>
+      <c r="Q16" s="101"/>
     </row>
     <row r="20" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O20" s="77"/>

--- a/SubRES_TMPL/SubRES_TRA_NL.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435C796-B4BC-46D3-92F9-BBE1CEB13415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391C90BE-0207-4E5A-8327-97609272DFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -4871,7 +4871,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -5093,7 +5093,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -5725,7 +5724,7 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView zoomScale="52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="52" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -7811,7 +7810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -8098,7 +8097,6 @@
         <f>'JET FUEL'!$J$59/'JET FUEL'!$S$22</f>
         <v>3.9865178986517899E-4</v>
       </c>
-      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
       <c r="Y12" s="69" t="s">
         <v>226</v>
@@ -8144,7 +8142,7 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13" s="101">
+      <c r="Q13">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
@@ -8192,7 +8190,6 @@
         <f>'JET FUEL'!$J$59/'JET FUEL'!$S$22</f>
         <v>3.9865178986517899E-4</v>
       </c>
-      <c r="Q14" s="101"/>
       <c r="Y14" s="70" t="s">
         <v>239</v>
       </c>
@@ -8223,7 +8220,7 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15" s="101">
+      <c r="Q15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
@@ -8270,7 +8267,6 @@
         <f>'JET FUEL'!$J$59/'JET FUEL'!$S$22</f>
         <v>3.9865178986517899E-4</v>
       </c>
-      <c r="Q16" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9787,7 +9783,7 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
@@ -12820,8 +12816,8 @@
   </sheetPr>
   <dimension ref="C1:U125"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17190,10 +17186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
-  <dimension ref="C3:AF20"/>
+  <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:Q19"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17683,7 +17679,6 @@
         <v>4.462946294629463E-4</v>
       </c>
       <c r="O15" s="77"/>
-      <c r="Q15" s="101"/>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
@@ -17700,7 +17695,7 @@
       <c r="P16" s="79">
         <v>1</v>
       </c>
-      <c r="Q16" s="101">
+      <c r="Q16">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
@@ -17727,7 +17722,6 @@
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="79"/>
-      <c r="Q17" s="101"/>
       <c r="T17" s="76"/>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.3">
@@ -17743,7 +17737,7 @@
       <c r="P18" s="79">
         <v>1</v>
       </c>
-      <c r="Q18" s="101">
+      <c r="Q18">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
@@ -17767,10 +17761,6 @@
         <f>L17</f>
         <v>4.462946294629463E-4</v>
       </c>
-      <c r="Q19" s="101"/>
-    </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="Q20" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21800,7 +21790,6 @@
         <v>6.9218898385565053E-4</v>
       </c>
       <c r="O15" s="77"/>
-      <c r="Q15" s="101"/>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
@@ -21817,7 +21806,7 @@
       <c r="P16" s="79">
         <v>1</v>
       </c>
-      <c r="Q16" s="101">
+      <c r="Q16">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
@@ -21842,7 +21831,6 @@
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="79"/>
-      <c r="Q17" s="101"/>
       <c r="T17" s="76"/>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.3">
@@ -21858,7 +21846,7 @@
       <c r="P18" s="79">
         <v>1</v>
       </c>
-      <c r="Q18" s="101">
+      <c r="Q18">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
@@ -21879,7 +21867,6 @@
         <f>L17</f>
         <v>6.9218898385565053E-4</v>
       </c>
-      <c r="Q19" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24564,7 +24551,6 @@
         <v>6.5123624317882812E-4</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
@@ -24581,7 +24567,7 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13" s="101">
+      <c r="Q13">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
@@ -24608,7 +24594,6 @@
       </c>
       <c r="O14" s="77"/>
       <c r="P14" s="79"/>
-      <c r="Q14" s="101"/>
       <c r="T14" s="76"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -24624,7 +24609,7 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15" s="101">
+      <c r="Q15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
@@ -24648,7 +24633,6 @@
         <f>L14</f>
         <v>6.5123624317882812E-4</v>
       </c>
-      <c r="Q16" s="101"/>
     </row>
     <row r="20" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O20" s="77"/>
